--- a/WorkLogs.xlsx
+++ b/WorkLogs.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">" "</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Project</t>
   </si>
@@ -31,9 +34,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>FINKI</t>
-  </si>
-  <si>
     <t>Documentation, Planning, Dezurstvo</t>
   </si>
   <si>
@@ -89,6 +89,24 @@
   </si>
   <si>
     <t>desc10</t>
+  </si>
+  <si>
+    <t>FINKI4</t>
+  </si>
+  <si>
+    <t>FINKI5</t>
+  </si>
+  <si>
+    <t>FINKI6</t>
+  </si>
+  <si>
+    <t>FINKI1</t>
+  </si>
+  <si>
+    <t>FINKI2</t>
+  </si>
+  <si>
+    <t>FINKI3</t>
   </si>
 </sst>
 </file>
@@ -131,8 +149,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -421,19 +467,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="257" max="257" width="15.44140625" customWidth="1"/>
+    <col min="258" max="258" width="11.44140625" customWidth="1"/>
+    <col min="259" max="259" width="10.109375" customWidth="1"/>
+    <col min="260" max="260" width="43.33203125" customWidth="1"/>
+    <col min="261" max="261" width="21.44140625" customWidth="1"/>
+    <col min="513" max="513" width="15.44140625" customWidth="1"/>
+    <col min="514" max="514" width="11.44140625" customWidth="1"/>
+    <col min="515" max="515" width="10.109375" customWidth="1"/>
+    <col min="516" max="516" width="43.33203125" customWidth="1"/>
+    <col min="517" max="517" width="21.44140625" customWidth="1"/>
+    <col min="769" max="769" width="15.44140625" customWidth="1"/>
+    <col min="770" max="770" width="11.44140625" customWidth="1"/>
+    <col min="771" max="771" width="10.109375" customWidth="1"/>
+    <col min="772" max="772" width="43.33203125" customWidth="1"/>
+    <col min="773" max="773" width="21.44140625" customWidth="1"/>
+    <col min="1025" max="1025" width="15.44140625" customWidth="1"/>
+    <col min="1026" max="1026" width="11.44140625" customWidth="1"/>
+    <col min="1027" max="1027" width="10.109375" customWidth="1"/>
+    <col min="1028" max="1028" width="43.33203125" customWidth="1"/>
+    <col min="1029" max="1029" width="21.44140625" customWidth="1"/>
+    <col min="1281" max="1281" width="15.44140625" customWidth="1"/>
+    <col min="1282" max="1282" width="11.44140625" customWidth="1"/>
+    <col min="1283" max="1283" width="10.109375" customWidth="1"/>
+    <col min="1284" max="1284" width="43.33203125" customWidth="1"/>
+    <col min="1285" max="1285" width="21.44140625" customWidth="1"/>
+    <col min="1537" max="1537" width="15.44140625" customWidth="1"/>
+    <col min="1538" max="1538" width="11.44140625" customWidth="1"/>
+    <col min="1539" max="1539" width="10.109375" customWidth="1"/>
+    <col min="1540" max="1540" width="43.33203125" customWidth="1"/>
+    <col min="1541" max="1541" width="21.44140625" customWidth="1"/>
+    <col min="1793" max="1793" width="15.44140625" customWidth="1"/>
+    <col min="1794" max="1794" width="11.44140625" customWidth="1"/>
+    <col min="1795" max="1795" width="10.109375" customWidth="1"/>
+    <col min="1796" max="1796" width="43.33203125" customWidth="1"/>
+    <col min="1797" max="1797" width="21.44140625" customWidth="1"/>
+    <col min="2049" max="2049" width="15.44140625" customWidth="1"/>
+    <col min="2050" max="2050" width="11.44140625" customWidth="1"/>
+    <col min="2051" max="2051" width="10.109375" customWidth="1"/>
+    <col min="2052" max="2052" width="43.33203125" customWidth="1"/>
+    <col min="2053" max="2053" width="21.44140625" customWidth="1"/>
+    <col min="2305" max="2305" width="15.44140625" customWidth="1"/>
+    <col min="2306" max="2306" width="11.44140625" customWidth="1"/>
+    <col min="2307" max="2307" width="10.109375" customWidth="1"/>
+    <col min="2308" max="2308" width="43.33203125" customWidth="1"/>
+    <col min="2309" max="2309" width="21.44140625" customWidth="1"/>
+    <col min="2561" max="2561" width="15.44140625" customWidth="1"/>
+    <col min="2562" max="2562" width="11.44140625" customWidth="1"/>
+    <col min="2563" max="2563" width="10.109375" customWidth="1"/>
+    <col min="2564" max="2564" width="43.33203125" customWidth="1"/>
+    <col min="2565" max="2565" width="21.44140625" customWidth="1"/>
+    <col min="2817" max="2817" width="15.44140625" customWidth="1"/>
+    <col min="2818" max="2818" width="11.44140625" customWidth="1"/>
+    <col min="2819" max="2819" width="10.109375" customWidth="1"/>
+    <col min="2820" max="2820" width="43.33203125" customWidth="1"/>
+    <col min="2821" max="2821" width="21.44140625" customWidth="1"/>
+    <col min="3073" max="3073" width="15.44140625" customWidth="1"/>
+    <col min="3074" max="3074" width="11.44140625" customWidth="1"/>
+    <col min="3075" max="3075" width="10.109375" customWidth="1"/>
+    <col min="3076" max="3076" width="43.33203125" customWidth="1"/>
+    <col min="3077" max="3077" width="21.44140625" customWidth="1"/>
+    <col min="3329" max="3329" width="15.44140625" customWidth="1"/>
+    <col min="3330" max="3330" width="11.44140625" customWidth="1"/>
+    <col min="3331" max="3331" width="10.109375" customWidth="1"/>
+    <col min="3332" max="3332" width="43.33203125" customWidth="1"/>
+    <col min="3333" max="3333" width="21.44140625" customWidth="1"/>
+    <col min="3585" max="3585" width="15.44140625" customWidth="1"/>
+    <col min="3586" max="3586" width="11.44140625" customWidth="1"/>
+    <col min="3587" max="3587" width="10.109375" customWidth="1"/>
+    <col min="3588" max="3588" width="43.33203125" customWidth="1"/>
+    <col min="3589" max="3589" width="21.44140625" customWidth="1"/>
+    <col min="3841" max="3841" width="15.44140625" customWidth="1"/>
+    <col min="3842" max="3842" width="11.44140625" customWidth="1"/>
+    <col min="3843" max="3843" width="10.109375" customWidth="1"/>
+    <col min="3844" max="3844" width="43.33203125" customWidth="1"/>
+    <col min="3845" max="3845" width="21.44140625" customWidth="1"/>
+    <col min="4097" max="4097" width="15.44140625" customWidth="1"/>
+    <col min="4098" max="4098" width="11.44140625" customWidth="1"/>
+    <col min="4099" max="4099" width="10.109375" customWidth="1"/>
+    <col min="4100" max="4100" width="43.33203125" customWidth="1"/>
+    <col min="4101" max="4101" width="21.44140625" customWidth="1"/>
+    <col min="4353" max="4353" width="15.44140625" customWidth="1"/>
+    <col min="4354" max="4354" width="11.44140625" customWidth="1"/>
+    <col min="4355" max="4355" width="10.109375" customWidth="1"/>
+    <col min="4356" max="4356" width="43.33203125" customWidth="1"/>
+    <col min="4357" max="4357" width="21.44140625" customWidth="1"/>
+    <col min="4609" max="4609" width="15.44140625" customWidth="1"/>
+    <col min="4610" max="4610" width="11.44140625" customWidth="1"/>
+    <col min="4611" max="4611" width="10.109375" customWidth="1"/>
+    <col min="4612" max="4612" width="43.33203125" customWidth="1"/>
+    <col min="4613" max="4613" width="21.44140625" customWidth="1"/>
+    <col min="4865" max="4865" width="15.44140625" customWidth="1"/>
+    <col min="4866" max="4866" width="11.44140625" customWidth="1"/>
+    <col min="4867" max="4867" width="10.109375" customWidth="1"/>
+    <col min="4868" max="4868" width="43.33203125" customWidth="1"/>
+    <col min="4869" max="4869" width="21.44140625" customWidth="1"/>
+    <col min="5121" max="5121" width="15.44140625" customWidth="1"/>
+    <col min="5122" max="5122" width="11.44140625" customWidth="1"/>
+    <col min="5123" max="5123" width="10.109375" customWidth="1"/>
+    <col min="5124" max="5124" width="43.33203125" customWidth="1"/>
+    <col min="5125" max="5125" width="21.44140625" customWidth="1"/>
+    <col min="5377" max="5377" width="15.44140625" customWidth="1"/>
+    <col min="5378" max="5378" width="11.44140625" customWidth="1"/>
+    <col min="5379" max="5379" width="10.109375" customWidth="1"/>
+    <col min="5380" max="5380" width="43.33203125" customWidth="1"/>
+    <col min="5381" max="5381" width="21.44140625" customWidth="1"/>
+    <col min="5633" max="5633" width="15.44140625" customWidth="1"/>
+    <col min="5634" max="5634" width="11.44140625" customWidth="1"/>
+    <col min="5635" max="5635" width="10.109375" customWidth="1"/>
+    <col min="5636" max="5636" width="43.33203125" customWidth="1"/>
+    <col min="5637" max="5637" width="21.44140625" customWidth="1"/>
+    <col min="5889" max="5889" width="15.44140625" customWidth="1"/>
+    <col min="5890" max="5890" width="11.44140625" customWidth="1"/>
+    <col min="5891" max="5891" width="10.109375" customWidth="1"/>
+    <col min="5892" max="5892" width="43.33203125" customWidth="1"/>
+    <col min="5893" max="5893" width="21.44140625" customWidth="1"/>
+    <col min="6145" max="6145" width="15.44140625" customWidth="1"/>
+    <col min="6146" max="6146" width="11.44140625" customWidth="1"/>
+    <col min="6147" max="6147" width="10.109375" customWidth="1"/>
+    <col min="6148" max="6148" width="43.33203125" customWidth="1"/>
+    <col min="6149" max="6149" width="21.44140625" customWidth="1"/>
+    <col min="6401" max="6401" width="15.44140625" customWidth="1"/>
+    <col min="6402" max="6402" width="11.44140625" customWidth="1"/>
+    <col min="6403" max="6403" width="10.109375" customWidth="1"/>
+    <col min="6404" max="6404" width="43.33203125" customWidth="1"/>
+    <col min="6405" max="6405" width="21.44140625" customWidth="1"/>
+    <col min="6657" max="6657" width="15.44140625" customWidth="1"/>
+    <col min="6658" max="6658" width="11.44140625" customWidth="1"/>
+    <col min="6659" max="6659" width="10.109375" customWidth="1"/>
+    <col min="6660" max="6660" width="43.33203125" customWidth="1"/>
+    <col min="6661" max="6661" width="21.44140625" customWidth="1"/>
+    <col min="6913" max="6913" width="15.44140625" customWidth="1"/>
+    <col min="6914" max="6914" width="11.44140625" customWidth="1"/>
+    <col min="6915" max="6915" width="10.109375" customWidth="1"/>
+    <col min="6916" max="6916" width="43.33203125" customWidth="1"/>
+    <col min="6917" max="6917" width="21.44140625" customWidth="1"/>
+    <col min="7169" max="7169" width="15.44140625" customWidth="1"/>
+    <col min="7170" max="7170" width="11.44140625" customWidth="1"/>
+    <col min="7171" max="7171" width="10.109375" customWidth="1"/>
+    <col min="7172" max="7172" width="43.33203125" customWidth="1"/>
+    <col min="7173" max="7173" width="21.44140625" customWidth="1"/>
+    <col min="7425" max="7425" width="15.44140625" customWidth="1"/>
+    <col min="7426" max="7426" width="11.44140625" customWidth="1"/>
+    <col min="7427" max="7427" width="10.109375" customWidth="1"/>
+    <col min="7428" max="7428" width="43.33203125" customWidth="1"/>
+    <col min="7429" max="7429" width="21.44140625" customWidth="1"/>
+    <col min="7681" max="7681" width="15.44140625" customWidth="1"/>
+    <col min="7682" max="7682" width="11.44140625" customWidth="1"/>
+    <col min="7683" max="7683" width="10.109375" customWidth="1"/>
+    <col min="7684" max="7684" width="43.33203125" customWidth="1"/>
+    <col min="7685" max="7685" width="21.44140625" customWidth="1"/>
+    <col min="7937" max="7937" width="15.44140625" customWidth="1"/>
+    <col min="7938" max="7938" width="11.44140625" customWidth="1"/>
+    <col min="7939" max="7939" width="10.109375" customWidth="1"/>
+    <col min="7940" max="7940" width="43.33203125" customWidth="1"/>
+    <col min="7941" max="7941" width="21.44140625" customWidth="1"/>
+    <col min="8193" max="8193" width="15.44140625" customWidth="1"/>
+    <col min="8194" max="8194" width="11.44140625" customWidth="1"/>
+    <col min="8195" max="8195" width="10.109375" customWidth="1"/>
+    <col min="8196" max="8196" width="43.33203125" customWidth="1"/>
+    <col min="8197" max="8197" width="21.44140625" customWidth="1"/>
+    <col min="8449" max="8449" width="15.44140625" customWidth="1"/>
+    <col min="8450" max="8450" width="11.44140625" customWidth="1"/>
+    <col min="8451" max="8451" width="10.109375" customWidth="1"/>
+    <col min="8452" max="8452" width="43.33203125" customWidth="1"/>
+    <col min="8453" max="8453" width="21.44140625" customWidth="1"/>
+    <col min="8705" max="8705" width="15.44140625" customWidth="1"/>
+    <col min="8706" max="8706" width="11.44140625" customWidth="1"/>
+    <col min="8707" max="8707" width="10.109375" customWidth="1"/>
+    <col min="8708" max="8708" width="43.33203125" customWidth="1"/>
+    <col min="8709" max="8709" width="21.44140625" customWidth="1"/>
+    <col min="8961" max="8961" width="15.44140625" customWidth="1"/>
+    <col min="8962" max="8962" width="11.44140625" customWidth="1"/>
+    <col min="8963" max="8963" width="10.109375" customWidth="1"/>
+    <col min="8964" max="8964" width="43.33203125" customWidth="1"/>
+    <col min="8965" max="8965" width="21.44140625" customWidth="1"/>
+    <col min="9217" max="9217" width="15.44140625" customWidth="1"/>
+    <col min="9218" max="9218" width="11.44140625" customWidth="1"/>
+    <col min="9219" max="9219" width="10.109375" customWidth="1"/>
+    <col min="9220" max="9220" width="43.33203125" customWidth="1"/>
+    <col min="9221" max="9221" width="21.44140625" customWidth="1"/>
+    <col min="9473" max="9473" width="15.44140625" customWidth="1"/>
+    <col min="9474" max="9474" width="11.44140625" customWidth="1"/>
+    <col min="9475" max="9475" width="10.109375" customWidth="1"/>
+    <col min="9476" max="9476" width="43.33203125" customWidth="1"/>
+    <col min="9477" max="9477" width="21.44140625" customWidth="1"/>
+    <col min="9729" max="9729" width="15.44140625" customWidth="1"/>
+    <col min="9730" max="9730" width="11.44140625" customWidth="1"/>
+    <col min="9731" max="9731" width="10.109375" customWidth="1"/>
+    <col min="9732" max="9732" width="43.33203125" customWidth="1"/>
+    <col min="9733" max="9733" width="21.44140625" customWidth="1"/>
+    <col min="9985" max="9985" width="15.44140625" customWidth="1"/>
+    <col min="9986" max="9986" width="11.44140625" customWidth="1"/>
+    <col min="9987" max="9987" width="10.109375" customWidth="1"/>
+    <col min="9988" max="9988" width="43.33203125" customWidth="1"/>
+    <col min="9989" max="9989" width="21.44140625" customWidth="1"/>
+    <col min="10241" max="10241" width="15.44140625" customWidth="1"/>
+    <col min="10242" max="10242" width="11.44140625" customWidth="1"/>
+    <col min="10243" max="10243" width="10.109375" customWidth="1"/>
+    <col min="10244" max="10244" width="43.33203125" customWidth="1"/>
+    <col min="10245" max="10245" width="21.44140625" customWidth="1"/>
+    <col min="10497" max="10497" width="15.44140625" customWidth="1"/>
+    <col min="10498" max="10498" width="11.44140625" customWidth="1"/>
+    <col min="10499" max="10499" width="10.109375" customWidth="1"/>
+    <col min="10500" max="10500" width="43.33203125" customWidth="1"/>
+    <col min="10501" max="10501" width="21.44140625" customWidth="1"/>
+    <col min="10753" max="10753" width="15.44140625" customWidth="1"/>
+    <col min="10754" max="10754" width="11.44140625" customWidth="1"/>
+    <col min="10755" max="10755" width="10.109375" customWidth="1"/>
+    <col min="10756" max="10756" width="43.33203125" customWidth="1"/>
+    <col min="10757" max="10757" width="21.44140625" customWidth="1"/>
+    <col min="11009" max="11009" width="15.44140625" customWidth="1"/>
+    <col min="11010" max="11010" width="11.44140625" customWidth="1"/>
+    <col min="11011" max="11011" width="10.109375" customWidth="1"/>
+    <col min="11012" max="11012" width="43.33203125" customWidth="1"/>
+    <col min="11013" max="11013" width="21.44140625" customWidth="1"/>
+    <col min="11265" max="11265" width="15.44140625" customWidth="1"/>
+    <col min="11266" max="11266" width="11.44140625" customWidth="1"/>
+    <col min="11267" max="11267" width="10.109375" customWidth="1"/>
+    <col min="11268" max="11268" width="43.33203125" customWidth="1"/>
+    <col min="11269" max="11269" width="21.44140625" customWidth="1"/>
+    <col min="11521" max="11521" width="15.44140625" customWidth="1"/>
+    <col min="11522" max="11522" width="11.44140625" customWidth="1"/>
+    <col min="11523" max="11523" width="10.109375" customWidth="1"/>
+    <col min="11524" max="11524" width="43.33203125" customWidth="1"/>
+    <col min="11525" max="11525" width="21.44140625" customWidth="1"/>
+    <col min="11777" max="11777" width="15.44140625" customWidth="1"/>
+    <col min="11778" max="11778" width="11.44140625" customWidth="1"/>
+    <col min="11779" max="11779" width="10.109375" customWidth="1"/>
+    <col min="11780" max="11780" width="43.33203125" customWidth="1"/>
+    <col min="11781" max="11781" width="21.44140625" customWidth="1"/>
+    <col min="12033" max="12033" width="15.44140625" customWidth="1"/>
+    <col min="12034" max="12034" width="11.44140625" customWidth="1"/>
+    <col min="12035" max="12035" width="10.109375" customWidth="1"/>
+    <col min="12036" max="12036" width="43.33203125" customWidth="1"/>
+    <col min="12037" max="12037" width="21.44140625" customWidth="1"/>
+    <col min="12289" max="12289" width="15.44140625" customWidth="1"/>
+    <col min="12290" max="12290" width="11.44140625" customWidth="1"/>
+    <col min="12291" max="12291" width="10.109375" customWidth="1"/>
+    <col min="12292" max="12292" width="43.33203125" customWidth="1"/>
+    <col min="12293" max="12293" width="21.44140625" customWidth="1"/>
+    <col min="12545" max="12545" width="15.44140625" customWidth="1"/>
+    <col min="12546" max="12546" width="11.44140625" customWidth="1"/>
+    <col min="12547" max="12547" width="10.109375" customWidth="1"/>
+    <col min="12548" max="12548" width="43.33203125" customWidth="1"/>
+    <col min="12549" max="12549" width="21.44140625" customWidth="1"/>
+    <col min="12801" max="12801" width="15.44140625" customWidth="1"/>
+    <col min="12802" max="12802" width="11.44140625" customWidth="1"/>
+    <col min="12803" max="12803" width="10.109375" customWidth="1"/>
+    <col min="12804" max="12804" width="43.33203125" customWidth="1"/>
+    <col min="12805" max="12805" width="21.44140625" customWidth="1"/>
+    <col min="13057" max="13057" width="15.44140625" customWidth="1"/>
+    <col min="13058" max="13058" width="11.44140625" customWidth="1"/>
+    <col min="13059" max="13059" width="10.109375" customWidth="1"/>
+    <col min="13060" max="13060" width="43.33203125" customWidth="1"/>
+    <col min="13061" max="13061" width="21.44140625" customWidth="1"/>
+    <col min="13313" max="13313" width="15.44140625" customWidth="1"/>
+    <col min="13314" max="13314" width="11.44140625" customWidth="1"/>
+    <col min="13315" max="13315" width="10.109375" customWidth="1"/>
+    <col min="13316" max="13316" width="43.33203125" customWidth="1"/>
+    <col min="13317" max="13317" width="21.44140625" customWidth="1"/>
+    <col min="13569" max="13569" width="15.44140625" customWidth="1"/>
+    <col min="13570" max="13570" width="11.44140625" customWidth="1"/>
+    <col min="13571" max="13571" width="10.109375" customWidth="1"/>
+    <col min="13572" max="13572" width="43.33203125" customWidth="1"/>
+    <col min="13573" max="13573" width="21.44140625" customWidth="1"/>
+    <col min="13825" max="13825" width="15.44140625" customWidth="1"/>
+    <col min="13826" max="13826" width="11.44140625" customWidth="1"/>
+    <col min="13827" max="13827" width="10.109375" customWidth="1"/>
+    <col min="13828" max="13828" width="43.33203125" customWidth="1"/>
+    <col min="13829" max="13829" width="21.44140625" customWidth="1"/>
+    <col min="14081" max="14081" width="15.44140625" customWidth="1"/>
+    <col min="14082" max="14082" width="11.44140625" customWidth="1"/>
+    <col min="14083" max="14083" width="10.109375" customWidth="1"/>
+    <col min="14084" max="14084" width="43.33203125" customWidth="1"/>
+    <col min="14085" max="14085" width="21.44140625" customWidth="1"/>
+    <col min="14337" max="14337" width="15.44140625" customWidth="1"/>
+    <col min="14338" max="14338" width="11.44140625" customWidth="1"/>
+    <col min="14339" max="14339" width="10.109375" customWidth="1"/>
+    <col min="14340" max="14340" width="43.33203125" customWidth="1"/>
+    <col min="14341" max="14341" width="21.44140625" customWidth="1"/>
+    <col min="14593" max="14593" width="15.44140625" customWidth="1"/>
+    <col min="14594" max="14594" width="11.44140625" customWidth="1"/>
+    <col min="14595" max="14595" width="10.109375" customWidth="1"/>
+    <col min="14596" max="14596" width="43.33203125" customWidth="1"/>
+    <col min="14597" max="14597" width="21.44140625" customWidth="1"/>
+    <col min="14849" max="14849" width="15.44140625" customWidth="1"/>
+    <col min="14850" max="14850" width="11.44140625" customWidth="1"/>
+    <col min="14851" max="14851" width="10.109375" customWidth="1"/>
+    <col min="14852" max="14852" width="43.33203125" customWidth="1"/>
+    <col min="14853" max="14853" width="21.44140625" customWidth="1"/>
+    <col min="15105" max="15105" width="15.44140625" customWidth="1"/>
+    <col min="15106" max="15106" width="11.44140625" customWidth="1"/>
+    <col min="15107" max="15107" width="10.109375" customWidth="1"/>
+    <col min="15108" max="15108" width="43.33203125" customWidth="1"/>
+    <col min="15109" max="15109" width="21.44140625" customWidth="1"/>
+    <col min="15361" max="15361" width="15.44140625" customWidth="1"/>
+    <col min="15362" max="15362" width="11.44140625" customWidth="1"/>
+    <col min="15363" max="15363" width="10.109375" customWidth="1"/>
+    <col min="15364" max="15364" width="43.33203125" customWidth="1"/>
+    <col min="15365" max="15365" width="21.44140625" customWidth="1"/>
+    <col min="15617" max="15617" width="15.44140625" customWidth="1"/>
+    <col min="15618" max="15618" width="11.44140625" customWidth="1"/>
+    <col min="15619" max="15619" width="10.109375" customWidth="1"/>
+    <col min="15620" max="15620" width="43.33203125" customWidth="1"/>
+    <col min="15621" max="15621" width="21.44140625" customWidth="1"/>
+    <col min="15873" max="15873" width="15.44140625" customWidth="1"/>
+    <col min="15874" max="15874" width="11.44140625" customWidth="1"/>
+    <col min="15875" max="15875" width="10.109375" customWidth="1"/>
+    <col min="15876" max="15876" width="43.33203125" customWidth="1"/>
+    <col min="15877" max="15877" width="21.44140625" customWidth="1"/>
+    <col min="16129" max="16129" width="15.44140625" customWidth="1"/>
+    <col min="16130" max="16130" width="11.44140625" customWidth="1"/>
+    <col min="16131" max="16131" width="10.109375" customWidth="1"/>
+    <col min="16132" max="16132" width="43.33203125" customWidth="1"/>
+    <col min="16133" max="16133" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -453,164 +814,24 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>41642</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42320</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>41627</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42134</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>42574</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>42321</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>41673</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>42071</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -618,7 +839,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
         <v>41391</v>
@@ -627,10 +848,10 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -638,7 +859,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>42165</v>
@@ -647,10 +868,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -658,7 +879,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>42557</v>
@@ -667,10 +888,10 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -678,7 +899,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
         <v>42246</v>
@@ -687,12 +908,152 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
+        <v>41642</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42320</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1">
+        <v>41627</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1">
+        <v>42132</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1">
+        <v>42574</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42321</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="F13" t="b">
+      <c r="B20" s="1">
+        <v>41673</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="b">
         <v>0</v>
       </c>
     </row>
